--- a/史正韵_職務経歴書.xlsx
+++ b/史正韵_職務経歴書.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="143">
   <si>
     <t>技　術　者　経　歴　書</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>スキル</t>
-  </si>
-  <si>
-    <t>◎：実務経験１年以上 ／ ○：実務経験有り ／ △：知識有り</t>
   </si>
   <si>
     <t>ＯＳ</t>
@@ -419,21 +416,10 @@
 </t>
   </si>
   <si>
-    <t>ツール開発、環境構築</t>
-  </si>
-  <si>
     <t>作業区分：   M：ﾏﾈｰｼﾞｬｰ、L：ﾘｰﾀﾞｰ、SL：ｻﾌﾞﾘｰﾀﾞｰ、SE：.ｼｽﾃﾑｴﾝｼﾞﾆｱ、SP：ｼｽﾃﾑﾌﾟﾛｸﾞﾗﾏｰ、PG：ﾌﾟﾛｸﾞﾗﾏｰ、OP：ｵﾍﾟﾚｰﾀｰ</t>
   </si>
   <si>
     <t>SE</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Web機能の改修と新規</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Web機能の改修</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -501,6 +487,40 @@
 　Oracle
 【フレームワーク】
 　Spring</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>◎：実務経験１年以上 ／ ○：実務経験有り ／ △：知識有り</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>◎</t>
+  </si>
+  <si>
+    <t>Web機能の改修、顧客から問い合わせ対応</t>
+    <rPh sb="9" eb="11">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="13" eb="20">
+      <t>トイアワセタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ツール開発、環境構築、リリース対応</t>
+    <rPh sb="15" eb="17">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>影響調査、Web機能の改修と新規</t>
+    <rPh sb="0" eb="2">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウサ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1524,31 +1544,37 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1560,31 +1586,91 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1593,47 +1679,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1641,74 +1709,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1728,6 +1772,9 @@
     <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1737,89 +1784,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2103,8 +2123,8 @@
   </sheetPr>
   <dimension ref="A1:AZ259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X53" sqref="X53:AC55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48:Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -2114,50 +2134,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="50"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="82"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
@@ -2170,48 +2190,48 @@
       <c r="AZ1" s="1"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="52"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="97"/>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
@@ -2224,48 +2244,48 @@
       <c r="AZ2" s="1"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="54"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="42"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
@@ -2278,53 +2298,53 @@
       <c r="AZ3" s="1"/>
     </row>
     <row r="4" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="61">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="112"/>
+      <c r="AJ4" s="114">
         <f ca="1">TODAY()</f>
-        <v>44376</v>
-      </c>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="56"/>
+        <v>44384</v>
+      </c>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="112"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
@@ -2337,12 +2357,12 @@
       <c r="AZ4" s="1"/>
     </row>
     <row r="5" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="118" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="45"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="72" t="s">
+      <c r="C5" s="46"/>
+      <c r="D5" s="108" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="45"/>
@@ -2352,45 +2372,45 @@
       <c r="I5" s="45"/>
       <c r="J5" s="45"/>
       <c r="K5" s="45"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="63" t="s">
+      <c r="L5" s="46"/>
+      <c r="M5" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="62" t="s">
+      <c r="N5" s="27"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="63" t="s">
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="57" t="s">
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="49"/>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="49"/>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="49"/>
-      <c r="AN5" s="49"/>
-      <c r="AO5" s="49"/>
-      <c r="AP5" s="50"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="82"/>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
@@ -2403,52 +2423,52 @@
       <c r="AZ5" s="1"/>
     </row>
     <row r="6" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="68" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="34"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="34"/>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="34"/>
-      <c r="AP6" s="52"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="97"/>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
@@ -2461,52 +2481,52 @@
       <c r="AZ6" s="1"/>
     </row>
     <row r="7" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="67" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="69" t="s">
+      <c r="N7" s="39"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="59"/>
-      <c r="AL7" s="59"/>
-      <c r="AM7" s="59"/>
-      <c r="AN7" s="59"/>
-      <c r="AO7" s="59"/>
-      <c r="AP7" s="60"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="75"/>
+      <c r="AM7" s="75"/>
+      <c r="AN7" s="75"/>
+      <c r="AO7" s="75"/>
+      <c r="AP7" s="77"/>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
@@ -2519,56 +2539,56 @@
       <c r="AZ7" s="1"/>
     </row>
     <row r="8" spans="1:52" ht="16.5" customHeight="1">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="67" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="64" t="s">
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="65"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="40"/>
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
@@ -2581,54 +2601,54 @@
       <c r="AZ8" s="1"/>
     </row>
     <row r="9" spans="1:52" ht="16.5" customHeight="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="99" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="28"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="97">
+      <c r="N9" s="39"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="73">
         <v>32908</v>
       </c>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="34"/>
-      <c r="AP9" s="52"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="97"/>
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
@@ -2641,52 +2661,52 @@
       <c r="AZ9" s="1"/>
     </row>
     <row r="10" spans="1:52" ht="16.5" customHeight="1">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="113" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="59"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
-      <c r="AK10" s="59"/>
-      <c r="AL10" s="59"/>
-      <c r="AM10" s="59"/>
-      <c r="AN10" s="59"/>
-      <c r="AO10" s="59"/>
-      <c r="AP10" s="60"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="77"/>
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
@@ -2699,58 +2719,58 @@
       <c r="AZ10" s="1"/>
     </row>
     <row r="11" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="100" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="69" t="s">
+      <c r="N11" s="39"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="67" t="s">
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="28"/>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="28"/>
-      <c r="AO11" s="28"/>
-      <c r="AP11" s="65"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="39"/>
+      <c r="AO11" s="39"/>
+      <c r="AP11" s="40"/>
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
@@ -2763,48 +2783,48 @@
       <c r="AZ11" s="1"/>
     </row>
     <row r="12" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="31"/>
-      <c r="AM12" s="31"/>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="54"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="33"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="33"/>
+      <c r="AO12" s="33"/>
+      <c r="AP12" s="42"/>
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
@@ -2871,14 +2891,14 @@
       <c r="AZ13" s="1"/>
     </row>
     <row r="14" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="94" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="44" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="45"/>
@@ -2888,8 +2908,8 @@
       <c r="K14" s="45"/>
       <c r="L14" s="45"/>
       <c r="M14" s="45"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="94" t="s">
+      <c r="N14" s="57"/>
+      <c r="O14" s="44" t="s">
         <v>23</v>
       </c>
       <c r="P14" s="45"/>
@@ -2918,7 +2938,7 @@
       <c r="AM14" s="45"/>
       <c r="AN14" s="45"/>
       <c r="AO14" s="45"/>
-      <c r="AP14" s="71"/>
+      <c r="AP14" s="46"/>
       <c r="AQ14" s="5"/>
       <c r="AR14" s="5"/>
       <c r="AS14" s="5"/>
@@ -2931,52 +2951,52 @@
       <c r="AZ14" s="5"/>
     </row>
     <row r="15" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="102" t="s">
+      <c r="A15" s="70"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="102" t="s">
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103"/>
-      <c r="T15" s="103"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103"/>
-      <c r="W15" s="103"/>
-      <c r="X15" s="103"/>
-      <c r="Y15" s="103"/>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="103"/>
-      <c r="AG15" s="103"/>
-      <c r="AH15" s="103"/>
-      <c r="AI15" s="103"/>
-      <c r="AJ15" s="103"/>
-      <c r="AK15" s="103"/>
-      <c r="AL15" s="103"/>
-      <c r="AM15" s="103"/>
-      <c r="AN15" s="103"/>
-      <c r="AO15" s="103"/>
-      <c r="AP15" s="112"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="48"/>
+      <c r="AJ15" s="48"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="48"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="48"/>
+      <c r="AO15" s="48"/>
+      <c r="AP15" s="49"/>
       <c r="AQ15" s="5"/>
       <c r="AR15" s="5"/>
       <c r="AS15" s="5"/>
@@ -2989,52 +3009,52 @@
       <c r="AZ15" s="5"/>
     </row>
     <row r="16" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="102" t="s">
+      <c r="A16" s="70"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="102" t="s">
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="103"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
-      <c r="W16" s="103"/>
-      <c r="X16" s="103"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="103"/>
-      <c r="AA16" s="103"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="103"/>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="103"/>
-      <c r="AG16" s="103"/>
-      <c r="AH16" s="103"/>
-      <c r="AI16" s="103"/>
-      <c r="AJ16" s="103"/>
-      <c r="AK16" s="103"/>
-      <c r="AL16" s="103"/>
-      <c r="AM16" s="103"/>
-      <c r="AN16" s="103"/>
-      <c r="AO16" s="103"/>
-      <c r="AP16" s="112"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="48"/>
+      <c r="AP16" s="49"/>
       <c r="AQ16" s="5"/>
       <c r="AR16" s="5"/>
       <c r="AS16" s="5"/>
@@ -3047,52 +3067,52 @@
       <c r="AZ16" s="5"/>
     </row>
     <row r="17" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="105" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="105" t="s">
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="106"/>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="106"/>
-      <c r="W17" s="106"/>
-      <c r="X17" s="106"/>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="106"/>
-      <c r="AA17" s="106"/>
-      <c r="AB17" s="106"/>
-      <c r="AC17" s="106"/>
-      <c r="AD17" s="106"/>
-      <c r="AE17" s="106"/>
-      <c r="AF17" s="106"/>
-      <c r="AG17" s="106"/>
-      <c r="AH17" s="106"/>
-      <c r="AI17" s="106"/>
-      <c r="AJ17" s="106"/>
-      <c r="AK17" s="106"/>
-      <c r="AL17" s="106"/>
-      <c r="AM17" s="106"/>
-      <c r="AN17" s="106"/>
-      <c r="AO17" s="106"/>
-      <c r="AP17" s="119"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="53"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="53"/>
+      <c r="AJ17" s="53"/>
+      <c r="AK17" s="53"/>
+      <c r="AL17" s="53"/>
+      <c r="AM17" s="53"/>
+      <c r="AN17" s="53"/>
+      <c r="AO17" s="53"/>
+      <c r="AP17" s="54"/>
       <c r="AQ17" s="5"/>
       <c r="AR17" s="5"/>
       <c r="AS17" s="5"/>
@@ -3159,11 +3179,11 @@
       <c r="AZ18" s="5"/>
     </row>
     <row r="19" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
@@ -3180,7 +3200,7 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
@@ -3217,58 +3237,58 @@
       <c r="AZ19" s="5"/>
     </row>
     <row r="20" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="79" t="s">
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="78" t="s">
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="79" t="s">
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="79" t="s">
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="39"/>
-      <c r="AC20" s="80"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG20" s="39"/>
-      <c r="AH20" s="39"/>
-      <c r="AI20" s="39"/>
-      <c r="AJ20" s="80"/>
-      <c r="AK20" s="78"/>
-      <c r="AL20" s="40"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="25"/>
       <c r="AM20" s="14"/>
       <c r="AN20" s="6"/>
       <c r="AO20" s="6"/>
@@ -3285,11 +3305,11 @@
       <c r="AZ20" s="5"/>
     </row>
     <row r="21" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="54"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -3297,42 +3317,42 @@
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
       <c r="J21" s="19"/>
-      <c r="K21" s="79" t="s">
+      <c r="K21" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="79" t="s">
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="80"/>
-      <c r="AD21" s="78"/>
-      <c r="AE21" s="40"/>
-      <c r="AF21" s="79"/>
-      <c r="AG21" s="39"/>
-      <c r="AH21" s="39"/>
-      <c r="AI21" s="39"/>
-      <c r="AJ21" s="80"/>
-      <c r="AK21" s="78"/>
-      <c r="AL21" s="40"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="24"/>
+      <c r="AL21" s="25"/>
       <c r="AM21" s="14"/>
       <c r="AN21" s="6"/>
       <c r="AO21" s="6"/>
@@ -3349,56 +3369,56 @@
       <c r="AZ21" s="5"/>
     </row>
     <row r="22" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="79" t="s">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="81" t="s">
+      <c r="J22" s="51"/>
+      <c r="K22" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J22" s="82"/>
-      <c r="K22" s="79" t="s">
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="79" t="s">
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="80"/>
-      <c r="AD22" s="78"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="79"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="39"/>
-      <c r="AI22" s="39"/>
-      <c r="AJ22" s="80"/>
-      <c r="AK22" s="78"/>
-      <c r="AL22" s="40"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="24"/>
+      <c r="AL22" s="25"/>
       <c r="AM22" s="14"/>
       <c r="AN22" s="6"/>
       <c r="AO22" s="6"/>
@@ -3415,52 +3435,52 @@
       <c r="AZ22" s="5"/>
     </row>
     <row r="23" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A23" s="51"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="79" t="s">
+      <c r="A23" s="70"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="40"/>
-      <c r="K23" s="79" t="s">
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="80"/>
-      <c r="AD23" s="78"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="79"/>
-      <c r="AG23" s="39"/>
-      <c r="AH23" s="39"/>
-      <c r="AI23" s="39"/>
-      <c r="AJ23" s="80"/>
-      <c r="AK23" s="78"/>
-      <c r="AL23" s="40"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="24"/>
+      <c r="AL23" s="25"/>
       <c r="AM23" s="14"/>
       <c r="AN23" s="6"/>
       <c r="AO23" s="6"/>
@@ -3477,60 +3497,60 @@
       <c r="AZ23" s="5"/>
     </row>
     <row r="24" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A24" s="51"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="79" t="s">
+      <c r="A24" s="70"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="79" t="s">
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="79" t="s">
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="80"/>
-      <c r="W24" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="80"/>
-      <c r="AD24" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="79"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="39"/>
-      <c r="AI24" s="39"/>
-      <c r="AJ24" s="80"/>
-      <c r="AK24" s="78"/>
-      <c r="AL24" s="40"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="24"/>
+      <c r="AL24" s="25"/>
       <c r="AM24" s="14"/>
       <c r="AN24" s="6"/>
       <c r="AO24" s="6"/>
@@ -3547,62 +3567,62 @@
       <c r="AZ24" s="5"/>
     </row>
     <row r="25" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A25" s="51"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="79" t="s">
+      <c r="A25" s="70"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="79" t="s">
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="79" t="s">
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="80"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="79" t="s">
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="80"/>
-      <c r="AD25" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG25" s="39"/>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="80"/>
-      <c r="AK25" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL25" s="40"/>
+      <c r="AG25" s="22"/>
+      <c r="AH25" s="22"/>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL25" s="25"/>
       <c r="AM25" s="14"/>
       <c r="AN25" s="6"/>
       <c r="AO25" s="6"/>
@@ -3619,54 +3639,54 @@
       <c r="AZ25" s="5"/>
     </row>
     <row r="26" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A26" s="51"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="79" t="s">
+      <c r="A26" s="70"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="79" t="s">
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="80"/>
-      <c r="W26" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="79"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="39"/>
-      <c r="AC26" s="80"/>
-      <c r="AD26" s="78"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="79"/>
-      <c r="AG26" s="39"/>
-      <c r="AH26" s="39"/>
-      <c r="AI26" s="39"/>
-      <c r="AJ26" s="80"/>
-      <c r="AK26" s="78"/>
-      <c r="AL26" s="40"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="21"/>
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="22"/>
+      <c r="AI26" s="22"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="24"/>
+      <c r="AL26" s="25"/>
       <c r="AM26" s="14"/>
       <c r="AN26" s="6"/>
       <c r="AO26" s="6"/>
@@ -3683,54 +3703,54 @@
       <c r="AZ26" s="5"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A27" s="51"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="79" t="s">
+      <c r="A27" s="70"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="25"/>
+      <c r="K27" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" s="40"/>
-      <c r="K27" s="79" t="s">
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="80"/>
-      <c r="W27" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="80"/>
-      <c r="AD27" s="78"/>
-      <c r="AE27" s="40"/>
-      <c r="AF27" s="79"/>
-      <c r="AG27" s="39"/>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="80"/>
-      <c r="AK27" s="78"/>
-      <c r="AL27" s="40"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="21"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="24"/>
+      <c r="AL27" s="25"/>
       <c r="AM27" s="14"/>
       <c r="AN27" s="6"/>
       <c r="AO27" s="6"/>
@@ -3747,58 +3767,58 @@
       <c r="AZ27" s="5"/>
     </row>
     <row r="28" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A28" s="51"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="79" t="s">
+      <c r="A28" s="70"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="J28" s="40"/>
-      <c r="K28" s="79" t="s">
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="79" t="s">
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="79" t="s">
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="80"/>
-      <c r="AD28" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE28" s="40"/>
-      <c r="AF28" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="AG28" s="16"/>
       <c r="AH28" s="16"/>
       <c r="AI28" s="16"/>
       <c r="AJ28" s="17"/>
-      <c r="AK28" s="78"/>
-      <c r="AL28" s="40"/>
+      <c r="AK28" s="24"/>
+      <c r="AL28" s="25"/>
       <c r="AM28" s="14"/>
       <c r="AN28" s="6"/>
       <c r="AO28" s="6"/>
@@ -3815,56 +3835,56 @@
       <c r="AZ28" s="5"/>
     </row>
     <row r="29" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A29" s="89"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="79" t="s">
+      <c r="A29" s="98"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" s="40"/>
-      <c r="K29" s="79" t="s">
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="79" t="s">
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="79" t="s">
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="24"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="39"/>
-      <c r="AB29" s="39"/>
-      <c r="AC29" s="80"/>
-      <c r="AD29" s="78"/>
-      <c r="AE29" s="40"/>
-      <c r="AF29" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG29" s="39"/>
-      <c r="AH29" s="39"/>
-      <c r="AI29" s="39"/>
-      <c r="AJ29" s="80"/>
-      <c r="AK29" s="78"/>
-      <c r="AL29" s="40"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="22"/>
+      <c r="AI29" s="22"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="24"/>
+      <c r="AL29" s="25"/>
       <c r="AM29" s="14"/>
       <c r="AN29" s="6"/>
       <c r="AO29" s="6"/>
@@ -3881,60 +3901,60 @@
       <c r="AZ29" s="5"/>
     </row>
     <row r="30" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="79" t="s">
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="J30" s="40"/>
-      <c r="K30" s="79" t="s">
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="79" t="s">
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="80"/>
-      <c r="W30" s="78"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="79" t="s">
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="24"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="80"/>
-      <c r="AD30" s="78"/>
-      <c r="AE30" s="40"/>
-      <c r="AF30" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG30" s="39"/>
-      <c r="AH30" s="39"/>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="80"/>
-      <c r="AK30" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL30" s="40"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="22"/>
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="23"/>
+      <c r="AK30" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL30" s="25"/>
       <c r="AM30" s="14"/>
       <c r="AN30" s="6"/>
       <c r="AO30" s="6"/>
@@ -3951,50 +3971,50 @@
       <c r="AZ30" s="5"/>
     </row>
     <row r="31" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A31" s="53"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="79" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="J31" s="40"/>
-      <c r="K31" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="79"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="80"/>
-      <c r="W31" s="78"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="79"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="80"/>
-      <c r="AD31" s="78"/>
-      <c r="AE31" s="40"/>
-      <c r="AF31" s="79"/>
-      <c r="AG31" s="39"/>
-      <c r="AH31" s="39"/>
-      <c r="AI31" s="39"/>
-      <c r="AJ31" s="80"/>
-      <c r="AK31" s="78"/>
-      <c r="AL31" s="40"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="22"/>
+      <c r="AI31" s="22"/>
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="24"/>
+      <c r="AL31" s="25"/>
       <c r="AM31" s="20"/>
       <c r="AN31" s="6"/>
       <c r="AO31" s="6"/>
@@ -4011,58 +4031,58 @@
       <c r="AZ31" s="5"/>
     </row>
     <row r="32" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="104"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="73" t="s">
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="J32" s="102"/>
+      <c r="K32" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="J32" s="77"/>
-      <c r="K32" s="73" t="s">
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="102"/>
+      <c r="R32" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="73" t="s">
+      <c r="S32" s="104"/>
+      <c r="T32" s="104"/>
+      <c r="U32" s="104"/>
+      <c r="V32" s="105"/>
+      <c r="W32" s="101"/>
+      <c r="X32" s="102"/>
+      <c r="Y32" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="S32" s="74"/>
-      <c r="T32" s="74"/>
-      <c r="U32" s="74"/>
-      <c r="V32" s="75"/>
-      <c r="W32" s="76"/>
-      <c r="X32" s="77"/>
-      <c r="Y32" s="73" t="s">
+      <c r="Z32" s="104"/>
+      <c r="AA32" s="104"/>
+      <c r="AB32" s="104"/>
+      <c r="AC32" s="105"/>
+      <c r="AD32" s="101"/>
+      <c r="AE32" s="102"/>
+      <c r="AF32" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="Z32" s="74"/>
-      <c r="AA32" s="74"/>
-      <c r="AB32" s="74"/>
-      <c r="AC32" s="75"/>
-      <c r="AD32" s="76"/>
-      <c r="AE32" s="77"/>
-      <c r="AF32" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG32" s="74"/>
-      <c r="AH32" s="74"/>
-      <c r="AI32" s="74"/>
-      <c r="AJ32" s="75"/>
-      <c r="AK32" s="76"/>
-      <c r="AL32" s="77"/>
+      <c r="AG32" s="104"/>
+      <c r="AH32" s="104"/>
+      <c r="AI32" s="104"/>
+      <c r="AJ32" s="105"/>
+      <c r="AK32" s="101"/>
+      <c r="AL32" s="102"/>
       <c r="AM32" s="14"/>
       <c r="AN32" s="6"/>
       <c r="AO32" s="6"/>
@@ -4079,42 +4099,42 @@
       <c r="AZ32" s="5"/>
     </row>
     <row r="33" spans="1:52" ht="15" customHeight="1">
-      <c r="A33" s="84"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="85"/>
-      <c r="R33" s="85"/>
-      <c r="S33" s="85"/>
-      <c r="T33" s="85"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="85"/>
-      <c r="W33" s="85"/>
-      <c r="X33" s="85"/>
-      <c r="Y33" s="85"/>
-      <c r="Z33" s="85"/>
-      <c r="AA33" s="85"/>
-      <c r="AB33" s="85"/>
-      <c r="AC33" s="85"/>
-      <c r="AD33" s="85"/>
-      <c r="AE33" s="85"/>
-      <c r="AF33" s="85"/>
-      <c r="AG33" s="85"/>
-      <c r="AH33" s="85"/>
-      <c r="AI33" s="85"/>
-      <c r="AJ33" s="86"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="93"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="93"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="93"/>
+      <c r="AD33" s="93"/>
+      <c r="AE33" s="93"/>
+      <c r="AF33" s="93"/>
+      <c r="AG33" s="93"/>
+      <c r="AH33" s="93"/>
+      <c r="AI33" s="93"/>
+      <c r="AJ33" s="94"/>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
       <c r="AM33" s="1"/>
@@ -4133,50 +4153,50 @@
       <c r="AZ33" s="1"/>
     </row>
     <row r="34" spans="1:52" ht="15" customHeight="1">
-      <c r="A34" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="49"/>
-      <c r="AA34" s="49"/>
-      <c r="AB34" s="49"/>
-      <c r="AC34" s="49"/>
-      <c r="AD34" s="49"/>
-      <c r="AE34" s="49"/>
-      <c r="AF34" s="49"/>
-      <c r="AG34" s="49"/>
-      <c r="AH34" s="49"/>
-      <c r="AI34" s="49"/>
-      <c r="AJ34" s="49"/>
-      <c r="AK34" s="49"/>
-      <c r="AL34" s="49"/>
-      <c r="AM34" s="49"/>
-      <c r="AN34" s="49"/>
-      <c r="AO34" s="49"/>
-      <c r="AP34" s="50"/>
+      <c r="A34" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="27"/>
+      <c r="AI34" s="27"/>
+      <c r="AJ34" s="27"/>
+      <c r="AK34" s="27"/>
+      <c r="AL34" s="27"/>
+      <c r="AM34" s="27"/>
+      <c r="AN34" s="27"/>
+      <c r="AO34" s="27"/>
+      <c r="AP34" s="82"/>
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
@@ -4189,48 +4209,48 @@
       <c r="AZ34" s="1"/>
     </row>
     <row r="35" spans="1:52" ht="15" customHeight="1">
-      <c r="A35" s="53"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="31"/>
-      <c r="AH35" s="31"/>
-      <c r="AI35" s="31"/>
-      <c r="AJ35" s="31"/>
-      <c r="AK35" s="31"/>
-      <c r="AL35" s="31"/>
-      <c r="AM35" s="31"/>
-      <c r="AN35" s="31"/>
-      <c r="AO35" s="31"/>
-      <c r="AP35" s="54"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="33"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="33"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="33"/>
+      <c r="AH35" s="33"/>
+      <c r="AI35" s="33"/>
+      <c r="AJ35" s="33"/>
+      <c r="AK35" s="33"/>
+      <c r="AL35" s="33"/>
+      <c r="AM35" s="33"/>
+      <c r="AN35" s="33"/>
+      <c r="AO35" s="33"/>
+      <c r="AP35" s="42"/>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
@@ -4243,52 +4263,52 @@
       <c r="AZ35" s="1"/>
     </row>
     <row r="36" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A36" s="115" t="s">
+      <c r="A36" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="117" t="s">
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="116" t="s">
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="109"/>
-      <c r="R36" s="116" t="s">
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="109"/>
-      <c r="X36" s="117" t="s">
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="Y36" s="49"/>
-      <c r="Z36" s="49"/>
-      <c r="AA36" s="49"/>
-      <c r="AB36" s="49"/>
-      <c r="AC36" s="109"/>
-      <c r="AD36" s="118" t="s">
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="44" t="s">
         <v>97</v>
-      </c>
-      <c r="AE36" s="49"/>
-      <c r="AF36" s="109"/>
-      <c r="AG36" s="94" t="s">
-        <v>98</v>
       </c>
       <c r="AH36" s="45"/>
       <c r="AI36" s="45"/>
@@ -4298,7 +4318,7 @@
       <c r="AM36" s="45"/>
       <c r="AN36" s="45"/>
       <c r="AO36" s="45"/>
-      <c r="AP36" s="71"/>
+      <c r="AP36" s="46"/>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
@@ -4311,67 +4331,67 @@
       <c r="AZ36" s="1"/>
     </row>
     <row r="37" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A37" s="42"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="35"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="34"/>
-      <c r="AF37" s="35"/>
-      <c r="AG37" s="95" t="s">
+      <c r="A37" s="64"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH37" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="AH37" s="95" t="s">
+      <c r="AI37" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="AI37" s="95" t="s">
+      <c r="AJ37" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="AJ37" s="95" t="s">
+      <c r="AK37" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="AK37" s="95" t="s">
+      <c r="AL37" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="AL37" s="95" t="s">
+      <c r="AM37" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="AM37" s="95" t="s">
+      <c r="AN37" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="AN37" s="95" t="s">
+      <c r="AO37" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="AO37" s="95" t="s">
+      <c r="AP37" s="87" t="s">
         <v>107</v>
-      </c>
-      <c r="AP37" s="96" t="s">
-        <v>108</v>
       </c>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
@@ -4385,48 +4405,48 @@
       <c r="AZ37" s="1"/>
     </row>
     <row r="38" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A38" s="42"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="35"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="34"/>
-      <c r="AF38" s="35"/>
-      <c r="AG38" s="22"/>
-      <c r="AH38" s="22"/>
-      <c r="AI38" s="22"/>
-      <c r="AJ38" s="22"/>
-      <c r="AK38" s="22"/>
-      <c r="AL38" s="22"/>
-      <c r="AM38" s="22"/>
-      <c r="AN38" s="22"/>
-      <c r="AO38" s="22"/>
-      <c r="AP38" s="25"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="84"/>
+      <c r="AH38" s="84"/>
+      <c r="AI38" s="84"/>
+      <c r="AJ38" s="84"/>
+      <c r="AK38" s="84"/>
+      <c r="AL38" s="84"/>
+      <c r="AM38" s="84"/>
+      <c r="AN38" s="84"/>
+      <c r="AO38" s="84"/>
+      <c r="AP38" s="88"/>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
@@ -4439,48 +4459,48 @@
       <c r="AZ38" s="1"/>
     </row>
     <row r="39" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A39" s="42"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="34"/>
-      <c r="AF39" s="35"/>
-      <c r="AG39" s="22"/>
-      <c r="AH39" s="22"/>
-      <c r="AI39" s="22"/>
-      <c r="AJ39" s="22"/>
-      <c r="AK39" s="22"/>
-      <c r="AL39" s="22"/>
-      <c r="AM39" s="22"/>
-      <c r="AN39" s="22"/>
-      <c r="AO39" s="22"/>
-      <c r="AP39" s="25"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="30"/>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="30"/>
+      <c r="AF39" s="31"/>
+      <c r="AG39" s="84"/>
+      <c r="AH39" s="84"/>
+      <c r="AI39" s="84"/>
+      <c r="AJ39" s="84"/>
+      <c r="AK39" s="84"/>
+      <c r="AL39" s="84"/>
+      <c r="AM39" s="84"/>
+      <c r="AN39" s="84"/>
+      <c r="AO39" s="84"/>
+      <c r="AP39" s="88"/>
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
@@ -4493,48 +4513,48 @@
       <c r="AZ39" s="1"/>
     </row>
     <row r="40" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A40" s="43"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="31"/>
-      <c r="AC40" s="32"/>
-      <c r="AD40" s="30"/>
-      <c r="AE40" s="31"/>
-      <c r="AF40" s="32"/>
-      <c r="AG40" s="23"/>
-      <c r="AH40" s="23"/>
-      <c r="AI40" s="23"/>
-      <c r="AJ40" s="23"/>
-      <c r="AK40" s="23"/>
-      <c r="AL40" s="23"/>
-      <c r="AM40" s="23"/>
-      <c r="AN40" s="23"/>
-      <c r="AO40" s="23"/>
-      <c r="AP40" s="26"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="34"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="33"/>
+      <c r="AF40" s="34"/>
+      <c r="AG40" s="85"/>
+      <c r="AH40" s="85"/>
+      <c r="AI40" s="85"/>
+      <c r="AJ40" s="85"/>
+      <c r="AK40" s="85"/>
+      <c r="AL40" s="85"/>
+      <c r="AM40" s="85"/>
+      <c r="AN40" s="85"/>
+      <c r="AO40" s="85"/>
+      <c r="AP40" s="89"/>
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
@@ -4547,17 +4567,17 @@
       <c r="AZ40" s="1"/>
     </row>
     <row r="41" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A41" s="41">
+      <c r="A41" s="66">
         <v>1</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="59" t="s">
         <v>109</v>
-      </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="114" t="s">
-        <v>110</v>
       </c>
       <c r="G41" s="45"/>
       <c r="H41" s="45"/>
@@ -4567,44 +4587,44 @@
       <c r="L41" s="45"/>
       <c r="M41" s="45"/>
       <c r="N41" s="45"/>
-      <c r="O41" s="46"/>
+      <c r="O41" s="56"/>
       <c r="P41" s="45"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="33" t="s">
+      <c r="Q41" s="57"/>
+      <c r="R41" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="35"/>
-      <c r="AD41" s="33" t="s">
+      <c r="AE41" s="30"/>
+      <c r="AF41" s="31"/>
+      <c r="AG41" s="86"/>
+      <c r="AH41" s="86"/>
+      <c r="AI41" s="86"/>
+      <c r="AJ41" s="86"/>
+      <c r="AK41" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="AE41" s="34"/>
-      <c r="AF41" s="35"/>
-      <c r="AG41" s="21"/>
-      <c r="AH41" s="21"/>
-      <c r="AI41" s="21"/>
-      <c r="AJ41" s="21"/>
-      <c r="AK41" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL41" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM41" s="21"/>
-      <c r="AN41" s="21"/>
-      <c r="AO41" s="21"/>
-      <c r="AP41" s="24"/>
+      <c r="AL41" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM41" s="86"/>
+      <c r="AN41" s="86"/>
+      <c r="AO41" s="86"/>
+      <c r="AP41" s="90"/>
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
@@ -4617,50 +4637,50 @@
       <c r="AZ41" s="1"/>
     </row>
     <row r="42" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A42" s="42"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="35"/>
-      <c r="AD42" s="36"/>
-      <c r="AE42" s="34"/>
-      <c r="AF42" s="35"/>
-      <c r="AG42" s="22"/>
-      <c r="AH42" s="22"/>
-      <c r="AI42" s="22"/>
-      <c r="AJ42" s="22"/>
-      <c r="AK42" s="22"/>
-      <c r="AL42" s="22"/>
-      <c r="AM42" s="22"/>
-      <c r="AN42" s="22"/>
-      <c r="AO42" s="22"/>
-      <c r="AP42" s="25"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="31"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="30"/>
+      <c r="AF42" s="31"/>
+      <c r="AG42" s="84"/>
+      <c r="AH42" s="84"/>
+      <c r="AI42" s="84"/>
+      <c r="AJ42" s="84"/>
+      <c r="AK42" s="84"/>
+      <c r="AL42" s="84"/>
+      <c r="AM42" s="84"/>
+      <c r="AN42" s="84"/>
+      <c r="AO42" s="84"/>
+      <c r="AP42" s="88"/>
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
@@ -4673,48 +4693,48 @@
       <c r="AZ42" s="1"/>
     </row>
     <row r="43" spans="1:52" ht="68.25" customHeight="1">
-      <c r="A43" s="43"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="31"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31"/>
-      <c r="AC43" s="32"/>
-      <c r="AD43" s="30"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="32"/>
-      <c r="AG43" s="23"/>
-      <c r="AH43" s="23"/>
-      <c r="AI43" s="23"/>
-      <c r="AJ43" s="23"/>
-      <c r="AK43" s="23"/>
-      <c r="AL43" s="23"/>
-      <c r="AM43" s="23"/>
-      <c r="AN43" s="23"/>
-      <c r="AO43" s="23"/>
-      <c r="AP43" s="26"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="33"/>
+      <c r="AA43" s="33"/>
+      <c r="AB43" s="33"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="32"/>
+      <c r="AE43" s="33"/>
+      <c r="AF43" s="34"/>
+      <c r="AG43" s="85"/>
+      <c r="AH43" s="85"/>
+      <c r="AI43" s="85"/>
+      <c r="AJ43" s="85"/>
+      <c r="AK43" s="85"/>
+      <c r="AL43" s="85"/>
+      <c r="AM43" s="85"/>
+      <c r="AN43" s="85"/>
+      <c r="AO43" s="85"/>
+      <c r="AP43" s="89"/>
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
@@ -4727,17 +4747,17 @@
       <c r="AZ43" s="1"/>
     </row>
     <row r="44" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A44" s="41">
+      <c r="A44" s="66">
         <v>2</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="62" t="s">
         <v>115</v>
-      </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="44" t="s">
-        <v>116</v>
       </c>
       <c r="G44" s="45"/>
       <c r="H44" s="45"/>
@@ -4747,44 +4767,44 @@
       <c r="L44" s="45"/>
       <c r="M44" s="45"/>
       <c r="N44" s="45"/>
-      <c r="O44" s="46"/>
+      <c r="O44" s="56"/>
       <c r="P44" s="45"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="33" t="s">
+      <c r="Q44" s="57"/>
+      <c r="R44" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="34"/>
-      <c r="AC44" s="35"/>
-      <c r="AD44" s="33" t="s">
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE44" s="30"/>
+      <c r="AF44" s="31"/>
+      <c r="AG44" s="86"/>
+      <c r="AH44" s="86"/>
+      <c r="AI44" s="86"/>
+      <c r="AJ44" s="86"/>
+      <c r="AK44" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="AE44" s="34"/>
-      <c r="AF44" s="35"/>
-      <c r="AG44" s="21"/>
-      <c r="AH44" s="21"/>
-      <c r="AI44" s="21"/>
-      <c r="AJ44" s="21"/>
-      <c r="AK44" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL44" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM44" s="21"/>
-      <c r="AN44" s="21"/>
-      <c r="AO44" s="21"/>
-      <c r="AP44" s="87"/>
+      <c r="AL44" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM44" s="86"/>
+      <c r="AN44" s="86"/>
+      <c r="AO44" s="86"/>
+      <c r="AP44" s="95"/>
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
@@ -4797,50 +4817,50 @@
       <c r="AZ44" s="1"/>
     </row>
     <row r="45" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A45" s="42"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="34"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="34"/>
-      <c r="X45" s="36"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="34"/>
-      <c r="AB45" s="34"/>
-      <c r="AC45" s="35"/>
-      <c r="AD45" s="36"/>
-      <c r="AE45" s="34"/>
-      <c r="AF45" s="35"/>
-      <c r="AG45" s="22"/>
-      <c r="AH45" s="22"/>
-      <c r="AI45" s="22"/>
-      <c r="AJ45" s="22"/>
-      <c r="AK45" s="22"/>
-      <c r="AL45" s="22"/>
-      <c r="AM45" s="22"/>
-      <c r="AN45" s="22"/>
-      <c r="AO45" s="22"/>
-      <c r="AP45" s="25"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="31"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="30"/>
+      <c r="AF45" s="31"/>
+      <c r="AG45" s="84"/>
+      <c r="AH45" s="84"/>
+      <c r="AI45" s="84"/>
+      <c r="AJ45" s="84"/>
+      <c r="AK45" s="84"/>
+      <c r="AL45" s="84"/>
+      <c r="AM45" s="84"/>
+      <c r="AN45" s="84"/>
+      <c r="AO45" s="84"/>
+      <c r="AP45" s="88"/>
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
@@ -4853,48 +4873,48 @@
       <c r="AZ45" s="1"/>
     </row>
     <row r="46" spans="1:52" ht="81.75" customHeight="1">
-      <c r="A46" s="43"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="31"/>
-      <c r="W46" s="31"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="31"/>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="31"/>
-      <c r="AB46" s="31"/>
-      <c r="AC46" s="32"/>
-      <c r="AD46" s="30"/>
-      <c r="AE46" s="31"/>
-      <c r="AF46" s="32"/>
-      <c r="AG46" s="23"/>
-      <c r="AH46" s="23"/>
-      <c r="AI46" s="23"/>
-      <c r="AJ46" s="23"/>
-      <c r="AK46" s="23"/>
-      <c r="AL46" s="23"/>
-      <c r="AM46" s="23"/>
-      <c r="AN46" s="23"/>
-      <c r="AO46" s="23"/>
-      <c r="AP46" s="26"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="33"/>
+      <c r="V46" s="33"/>
+      <c r="W46" s="33"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="33"/>
+      <c r="Z46" s="33"/>
+      <c r="AA46" s="33"/>
+      <c r="AB46" s="33"/>
+      <c r="AC46" s="34"/>
+      <c r="AD46" s="32"/>
+      <c r="AE46" s="33"/>
+      <c r="AF46" s="34"/>
+      <c r="AG46" s="85"/>
+      <c r="AH46" s="85"/>
+      <c r="AI46" s="85"/>
+      <c r="AJ46" s="85"/>
+      <c r="AK46" s="85"/>
+      <c r="AL46" s="85"/>
+      <c r="AM46" s="85"/>
+      <c r="AN46" s="85"/>
+      <c r="AO46" s="85"/>
+      <c r="AP46" s="89"/>
       <c r="AQ46" s="1"/>
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
@@ -4907,17 +4927,17 @@
       <c r="AZ46" s="1"/>
     </row>
     <row r="47" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A47" s="41">
+      <c r="A47" s="66">
         <v>3</v>
       </c>
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="116" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="62" t="s">
         <v>120</v>
-      </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="44" t="s">
-        <v>121</v>
       </c>
       <c r="G47" s="45"/>
       <c r="H47" s="45"/>
@@ -4927,44 +4947,44 @@
       <c r="L47" s="45"/>
       <c r="M47" s="45"/>
       <c r="N47" s="45"/>
-      <c r="O47" s="46"/>
+      <c r="O47" s="56"/>
       <c r="P47" s="45"/>
-      <c r="Q47" s="47"/>
-      <c r="R47" s="33" t="s">
+      <c r="Q47" s="57"/>
+      <c r="R47" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30"/>
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="31"/>
+      <c r="AD47" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="34"/>
-      <c r="AA47" s="34"/>
-      <c r="AB47" s="34"/>
-      <c r="AC47" s="35"/>
-      <c r="AD47" s="33" t="s">
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="31"/>
+      <c r="AG47" s="86"/>
+      <c r="AH47" s="86"/>
+      <c r="AI47" s="86"/>
+      <c r="AJ47" s="86"/>
+      <c r="AK47" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="AE47" s="34"/>
-      <c r="AF47" s="35"/>
-      <c r="AG47" s="21"/>
-      <c r="AH47" s="21"/>
-      <c r="AI47" s="21"/>
-      <c r="AJ47" s="21"/>
-      <c r="AK47" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL47" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM47" s="21"/>
-      <c r="AN47" s="21"/>
-      <c r="AO47" s="21"/>
-      <c r="AP47" s="24"/>
+      <c r="AL47" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM47" s="86"/>
+      <c r="AN47" s="86"/>
+      <c r="AO47" s="86"/>
+      <c r="AP47" s="90"/>
       <c r="AQ47" s="1"/>
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
@@ -4977,50 +4997,50 @@
       <c r="AZ47" s="1"/>
     </row>
     <row r="48" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A48" s="42"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="35"/>
-      <c r="AD48" s="36"/>
-      <c r="AE48" s="34"/>
-      <c r="AF48" s="35"/>
-      <c r="AG48" s="22"/>
-      <c r="AH48" s="22"/>
-      <c r="AI48" s="22"/>
-      <c r="AJ48" s="22"/>
-      <c r="AK48" s="22"/>
-      <c r="AL48" s="22"/>
-      <c r="AM48" s="22"/>
-      <c r="AN48" s="22"/>
-      <c r="AO48" s="22"/>
-      <c r="AP48" s="25"/>
+      <c r="A48" s="64"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="30"/>
+      <c r="AA48" s="30"/>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="31"/>
+      <c r="AD48" s="29"/>
+      <c r="AE48" s="30"/>
+      <c r="AF48" s="31"/>
+      <c r="AG48" s="84"/>
+      <c r="AH48" s="84"/>
+      <c r="AI48" s="84"/>
+      <c r="AJ48" s="84"/>
+      <c r="AK48" s="84"/>
+      <c r="AL48" s="84"/>
+      <c r="AM48" s="84"/>
+      <c r="AN48" s="84"/>
+      <c r="AO48" s="84"/>
+      <c r="AP48" s="88"/>
       <c r="AQ48" s="1"/>
       <c r="AR48" s="1"/>
       <c r="AS48" s="1"/>
@@ -5033,48 +5053,48 @@
       <c r="AZ48" s="1"/>
     </row>
     <row r="49" spans="1:52" ht="40.5" customHeight="1">
-      <c r="A49" s="43"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="31"/>
-      <c r="V49" s="31"/>
-      <c r="W49" s="31"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="31"/>
-      <c r="Z49" s="31"/>
-      <c r="AA49" s="31"/>
-      <c r="AB49" s="31"/>
-      <c r="AC49" s="32"/>
-      <c r="AD49" s="30"/>
-      <c r="AE49" s="31"/>
-      <c r="AF49" s="32"/>
-      <c r="AG49" s="23"/>
-      <c r="AH49" s="23"/>
-      <c r="AI49" s="23"/>
-      <c r="AJ49" s="23"/>
-      <c r="AK49" s="23"/>
-      <c r="AL49" s="23"/>
-      <c r="AM49" s="23"/>
-      <c r="AN49" s="23"/>
-      <c r="AO49" s="23"/>
-      <c r="AP49" s="26"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="33"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="33"/>
+      <c r="AC49" s="34"/>
+      <c r="AD49" s="32"/>
+      <c r="AE49" s="33"/>
+      <c r="AF49" s="34"/>
+      <c r="AG49" s="85"/>
+      <c r="AH49" s="85"/>
+      <c r="AI49" s="85"/>
+      <c r="AJ49" s="85"/>
+      <c r="AK49" s="85"/>
+      <c r="AL49" s="85"/>
+      <c r="AM49" s="85"/>
+      <c r="AN49" s="85"/>
+      <c r="AO49" s="85"/>
+      <c r="AP49" s="89"/>
       <c r="AQ49" s="1"/>
       <c r="AR49" s="1"/>
       <c r="AS49" s="1"/>
@@ -5087,17 +5107,17 @@
       <c r="AZ49" s="1"/>
     </row>
     <row r="50" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A50" s="41">
+      <c r="A50" s="66">
         <v>4</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="62" t="s">
         <v>124</v>
-      </c>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="44" t="s">
-        <v>125</v>
       </c>
       <c r="G50" s="45"/>
       <c r="H50" s="45"/>
@@ -5107,44 +5127,44 @@
       <c r="L50" s="45"/>
       <c r="M50" s="45"/>
       <c r="N50" s="45"/>
-      <c r="O50" s="46"/>
+      <c r="O50" s="56"/>
       <c r="P50" s="45"/>
-      <c r="Q50" s="47"/>
-      <c r="R50" s="33" t="s">
+      <c r="Q50" s="57"/>
+      <c r="R50" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="30"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y50" s="30"/>
+      <c r="Z50" s="30"/>
+      <c r="AA50" s="30"/>
+      <c r="AB50" s="30"/>
+      <c r="AC50" s="31"/>
+      <c r="AD50" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="S50" s="34"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="34"/>
-      <c r="V50" s="34"/>
-      <c r="W50" s="34"/>
-      <c r="X50" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y50" s="34"/>
-      <c r="Z50" s="34"/>
-      <c r="AA50" s="34"/>
-      <c r="AB50" s="34"/>
-      <c r="AC50" s="35"/>
-      <c r="AD50" s="33" t="s">
+      <c r="AE50" s="30"/>
+      <c r="AF50" s="31"/>
+      <c r="AG50" s="86"/>
+      <c r="AH50" s="86"/>
+      <c r="AI50" s="86"/>
+      <c r="AJ50" s="86"/>
+      <c r="AK50" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="AE50" s="34"/>
-      <c r="AF50" s="35"/>
-      <c r="AG50" s="21"/>
-      <c r="AH50" s="21"/>
-      <c r="AI50" s="21"/>
-      <c r="AJ50" s="21"/>
-      <c r="AK50" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL50" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM50" s="21"/>
-      <c r="AN50" s="21"/>
-      <c r="AO50" s="21"/>
-      <c r="AP50" s="24"/>
+      <c r="AL50" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM50" s="86"/>
+      <c r="AN50" s="86"/>
+      <c r="AO50" s="86"/>
+      <c r="AP50" s="90"/>
       <c r="AQ50" s="1"/>
       <c r="AR50" s="1"/>
       <c r="AS50" s="1"/>
@@ -5157,50 +5177,50 @@
       <c r="AZ50" s="1"/>
     </row>
     <row r="51" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A51" s="42"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="36"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="34"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="36"/>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
-      <c r="AB51" s="34"/>
-      <c r="AC51" s="35"/>
-      <c r="AD51" s="36"/>
-      <c r="AE51" s="34"/>
-      <c r="AF51" s="35"/>
-      <c r="AG51" s="22"/>
-      <c r="AH51" s="22"/>
-      <c r="AI51" s="22"/>
-      <c r="AJ51" s="22"/>
-      <c r="AK51" s="22"/>
-      <c r="AL51" s="22"/>
-      <c r="AM51" s="22"/>
-      <c r="AN51" s="22"/>
-      <c r="AO51" s="22"/>
-      <c r="AP51" s="25"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30"/>
+      <c r="AA51" s="30"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="31"/>
+      <c r="AD51" s="29"/>
+      <c r="AE51" s="30"/>
+      <c r="AF51" s="31"/>
+      <c r="AG51" s="84"/>
+      <c r="AH51" s="84"/>
+      <c r="AI51" s="84"/>
+      <c r="AJ51" s="84"/>
+      <c r="AK51" s="84"/>
+      <c r="AL51" s="84"/>
+      <c r="AM51" s="84"/>
+      <c r="AN51" s="84"/>
+      <c r="AO51" s="84"/>
+      <c r="AP51" s="88"/>
       <c r="AQ51" s="1"/>
       <c r="AR51" s="1"/>
       <c r="AS51" s="1"/>
@@ -5213,48 +5233,48 @@
       <c r="AZ51" s="1"/>
     </row>
     <row r="52" spans="1:52" ht="29.25" customHeight="1">
-      <c r="A52" s="43"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="31"/>
-      <c r="U52" s="31"/>
-      <c r="V52" s="31"/>
-      <c r="W52" s="31"/>
-      <c r="X52" s="30"/>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="31"/>
-      <c r="AA52" s="31"/>
-      <c r="AB52" s="31"/>
-      <c r="AC52" s="32"/>
-      <c r="AD52" s="30"/>
-      <c r="AE52" s="31"/>
-      <c r="AF52" s="32"/>
-      <c r="AG52" s="23"/>
-      <c r="AH52" s="23"/>
-      <c r="AI52" s="23"/>
-      <c r="AJ52" s="23"/>
-      <c r="AK52" s="23"/>
-      <c r="AL52" s="23"/>
-      <c r="AM52" s="23"/>
-      <c r="AN52" s="23"/>
-      <c r="AO52" s="23"/>
-      <c r="AP52" s="26"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="33"/>
+      <c r="X52" s="32"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="33"/>
+      <c r="AB52" s="33"/>
+      <c r="AC52" s="34"/>
+      <c r="AD52" s="32"/>
+      <c r="AE52" s="33"/>
+      <c r="AF52" s="34"/>
+      <c r="AG52" s="85"/>
+      <c r="AH52" s="85"/>
+      <c r="AI52" s="85"/>
+      <c r="AJ52" s="85"/>
+      <c r="AK52" s="85"/>
+      <c r="AL52" s="85"/>
+      <c r="AM52" s="85"/>
+      <c r="AN52" s="85"/>
+      <c r="AO52" s="85"/>
+      <c r="AP52" s="89"/>
       <c r="AQ52" s="1"/>
       <c r="AR52" s="1"/>
       <c r="AS52" s="1"/>
@@ -5267,17 +5287,17 @@
       <c r="AZ52" s="1"/>
     </row>
     <row r="53" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A53" s="41">
+      <c r="A53" s="66">
         <v>5</v>
       </c>
-      <c r="B53" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="44" t="s">
-        <v>125</v>
+      <c r="B53" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="62" t="s">
+        <v>124</v>
       </c>
       <c r="G53" s="45"/>
       <c r="H53" s="45"/>
@@ -5287,44 +5307,44 @@
       <c r="L53" s="45"/>
       <c r="M53" s="45"/>
       <c r="N53" s="45"/>
-      <c r="O53" s="46"/>
+      <c r="O53" s="56"/>
       <c r="P53" s="45"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="33" t="s">
+      <c r="Q53" s="57"/>
+      <c r="R53" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="30"/>
+      <c r="AA53" s="30"/>
+      <c r="AB53" s="30"/>
+      <c r="AC53" s="31"/>
+      <c r="AD53" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="34"/>
-      <c r="X53" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="34"/>
-      <c r="AA53" s="34"/>
-      <c r="AB53" s="34"/>
-      <c r="AC53" s="35"/>
-      <c r="AD53" s="33" t="s">
+      <c r="AE53" s="30"/>
+      <c r="AF53" s="31"/>
+      <c r="AG53" s="86"/>
+      <c r="AH53" s="86"/>
+      <c r="AI53" s="86"/>
+      <c r="AJ53" s="86"/>
+      <c r="AK53" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="AE53" s="34"/>
-      <c r="AF53" s="35"/>
-      <c r="AG53" s="21"/>
-      <c r="AH53" s="21"/>
-      <c r="AI53" s="21"/>
-      <c r="AJ53" s="21"/>
-      <c r="AK53" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL53" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM53" s="21"/>
-      <c r="AN53" s="21"/>
-      <c r="AO53" s="21"/>
-      <c r="AP53" s="24"/>
+      <c r="AL53" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM53" s="86"/>
+      <c r="AN53" s="86"/>
+      <c r="AO53" s="86"/>
+      <c r="AP53" s="90"/>
       <c r="AQ53" s="1"/>
       <c r="AR53" s="1"/>
       <c r="AS53" s="1"/>
@@ -5337,50 +5357,50 @@
       <c r="AZ53" s="1"/>
     </row>
     <row r="54" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A54" s="42"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="36"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="34"/>
-      <c r="V54" s="34"/>
-      <c r="W54" s="34"/>
-      <c r="X54" s="36"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="34"/>
-      <c r="AA54" s="34"/>
-      <c r="AB54" s="34"/>
-      <c r="AC54" s="35"/>
-      <c r="AD54" s="36"/>
-      <c r="AE54" s="34"/>
-      <c r="AF54" s="35"/>
-      <c r="AG54" s="22"/>
-      <c r="AH54" s="22"/>
-      <c r="AI54" s="22"/>
-      <c r="AJ54" s="22"/>
-      <c r="AK54" s="22"/>
-      <c r="AL54" s="22"/>
-      <c r="AM54" s="22"/>
-      <c r="AN54" s="22"/>
-      <c r="AO54" s="22"/>
-      <c r="AP54" s="25"/>
+      <c r="A54" s="64"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="61"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="30"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="30"/>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="30"/>
+      <c r="AA54" s="30"/>
+      <c r="AB54" s="30"/>
+      <c r="AC54" s="31"/>
+      <c r="AD54" s="29"/>
+      <c r="AE54" s="30"/>
+      <c r="AF54" s="31"/>
+      <c r="AG54" s="84"/>
+      <c r="AH54" s="84"/>
+      <c r="AI54" s="84"/>
+      <c r="AJ54" s="84"/>
+      <c r="AK54" s="84"/>
+      <c r="AL54" s="84"/>
+      <c r="AM54" s="84"/>
+      <c r="AN54" s="84"/>
+      <c r="AO54" s="84"/>
+      <c r="AP54" s="88"/>
       <c r="AQ54" s="1"/>
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
@@ -5393,48 +5413,48 @@
       <c r="AZ54" s="1"/>
     </row>
     <row r="55" spans="1:52" ht="24.75" customHeight="1">
-      <c r="A55" s="43"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="31"/>
-      <c r="U55" s="31"/>
-      <c r="V55" s="31"/>
-      <c r="W55" s="31"/>
-      <c r="X55" s="30"/>
-      <c r="Y55" s="31"/>
-      <c r="Z55" s="31"/>
-      <c r="AA55" s="31"/>
-      <c r="AB55" s="31"/>
-      <c r="AC55" s="32"/>
-      <c r="AD55" s="30"/>
-      <c r="AE55" s="31"/>
-      <c r="AF55" s="32"/>
-      <c r="AG55" s="23"/>
-      <c r="AH55" s="23"/>
-      <c r="AI55" s="23"/>
-      <c r="AJ55" s="23"/>
-      <c r="AK55" s="23"/>
-      <c r="AL55" s="23"/>
-      <c r="AM55" s="23"/>
-      <c r="AN55" s="23"/>
-      <c r="AO55" s="23"/>
-      <c r="AP55" s="26"/>
+      <c r="A55" s="65"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="33"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="33"/>
+      <c r="AB55" s="33"/>
+      <c r="AC55" s="34"/>
+      <c r="AD55" s="32"/>
+      <c r="AE55" s="33"/>
+      <c r="AF55" s="34"/>
+      <c r="AG55" s="85"/>
+      <c r="AH55" s="85"/>
+      <c r="AI55" s="85"/>
+      <c r="AJ55" s="85"/>
+      <c r="AK55" s="85"/>
+      <c r="AL55" s="85"/>
+      <c r="AM55" s="85"/>
+      <c r="AN55" s="85"/>
+      <c r="AO55" s="85"/>
+      <c r="AP55" s="89"/>
       <c r="AQ55" s="1"/>
       <c r="AR55" s="1"/>
       <c r="AS55" s="1"/>
@@ -5447,17 +5467,17 @@
       <c r="AZ55" s="1"/>
     </row>
     <row r="56" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A56" s="41">
+      <c r="A56" s="66">
         <v>5</v>
       </c>
-      <c r="B56" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="44" t="s">
-        <v>134</v>
+      <c r="B56" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="62" t="s">
+        <v>130</v>
       </c>
       <c r="G56" s="45"/>
       <c r="H56" s="45"/>
@@ -5467,44 +5487,48 @@
       <c r="L56" s="45"/>
       <c r="M56" s="45"/>
       <c r="N56" s="45"/>
-      <c r="O56" s="46"/>
+      <c r="O56" s="56"/>
       <c r="P56" s="45"/>
-      <c r="Q56" s="47"/>
-      <c r="R56" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="S56" s="34"/>
-      <c r="T56" s="34"/>
-      <c r="U56" s="34"/>
-      <c r="V56" s="34"/>
-      <c r="W56" s="34"/>
-      <c r="X56" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y56" s="34"/>
-      <c r="Z56" s="34"/>
-      <c r="AA56" s="34"/>
-      <c r="AB56" s="34"/>
-      <c r="AC56" s="35"/>
-      <c r="AD56" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE56" s="34"/>
-      <c r="AF56" s="35"/>
-      <c r="AG56" s="21"/>
-      <c r="AH56" s="21"/>
-      <c r="AI56" s="21"/>
-      <c r="AJ56" s="21"/>
-      <c r="AK56" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL56" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM56" s="21"/>
-      <c r="AN56" s="21"/>
-      <c r="AO56" s="21"/>
-      <c r="AP56" s="24"/>
+      <c r="Q56" s="57"/>
+      <c r="R56" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y56" s="30"/>
+      <c r="Z56" s="30"/>
+      <c r="AA56" s="30"/>
+      <c r="AB56" s="30"/>
+      <c r="AC56" s="31"/>
+      <c r="AD56" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE56" s="30"/>
+      <c r="AF56" s="31"/>
+      <c r="AG56" s="86"/>
+      <c r="AH56" s="86"/>
+      <c r="AI56" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ56" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK56" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL56" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM56" s="86"/>
+      <c r="AN56" s="86"/>
+      <c r="AO56" s="86"/>
+      <c r="AP56" s="90"/>
       <c r="AQ56" s="1"/>
       <c r="AR56" s="1"/>
       <c r="AS56" s="1"/>
@@ -5517,50 +5541,50 @@
       <c r="AZ56" s="1"/>
     </row>
     <row r="57" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A57" s="42"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="34"/>
-      <c r="U57" s="34"/>
-      <c r="V57" s="34"/>
-      <c r="W57" s="34"/>
-      <c r="X57" s="36"/>
-      <c r="Y57" s="34"/>
-      <c r="Z57" s="34"/>
-      <c r="AA57" s="34"/>
-      <c r="AB57" s="34"/>
-      <c r="AC57" s="35"/>
-      <c r="AD57" s="36"/>
-      <c r="AE57" s="34"/>
-      <c r="AF57" s="35"/>
-      <c r="AG57" s="22"/>
-      <c r="AH57" s="22"/>
-      <c r="AI57" s="22"/>
-      <c r="AJ57" s="22"/>
-      <c r="AK57" s="22"/>
-      <c r="AL57" s="22"/>
-      <c r="AM57" s="22"/>
-      <c r="AN57" s="22"/>
-      <c r="AO57" s="22"/>
-      <c r="AP57" s="25"/>
+      <c r="A57" s="64"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="61"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="30"/>
+      <c r="V57" s="30"/>
+      <c r="W57" s="30"/>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="30"/>
+      <c r="Z57" s="30"/>
+      <c r="AA57" s="30"/>
+      <c r="AB57" s="30"/>
+      <c r="AC57" s="31"/>
+      <c r="AD57" s="29"/>
+      <c r="AE57" s="30"/>
+      <c r="AF57" s="31"/>
+      <c r="AG57" s="84"/>
+      <c r="AH57" s="84"/>
+      <c r="AI57" s="84"/>
+      <c r="AJ57" s="84"/>
+      <c r="AK57" s="84"/>
+      <c r="AL57" s="84"/>
+      <c r="AM57" s="84"/>
+      <c r="AN57" s="84"/>
+      <c r="AO57" s="84"/>
+      <c r="AP57" s="88"/>
       <c r="AQ57" s="1"/>
       <c r="AR57" s="1"/>
       <c r="AS57" s="1"/>
@@ -5573,48 +5597,48 @@
       <c r="AZ57" s="1"/>
     </row>
     <row r="58" spans="1:52" ht="48.75" customHeight="1">
-      <c r="A58" s="43"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="31"/>
-      <c r="T58" s="31"/>
-      <c r="U58" s="31"/>
-      <c r="V58" s="31"/>
-      <c r="W58" s="31"/>
-      <c r="X58" s="30"/>
-      <c r="Y58" s="31"/>
-      <c r="Z58" s="31"/>
-      <c r="AA58" s="31"/>
-      <c r="AB58" s="31"/>
-      <c r="AC58" s="32"/>
-      <c r="AD58" s="30"/>
-      <c r="AE58" s="31"/>
-      <c r="AF58" s="32"/>
-      <c r="AG58" s="23"/>
-      <c r="AH58" s="23"/>
-      <c r="AI58" s="23"/>
-      <c r="AJ58" s="23"/>
-      <c r="AK58" s="23"/>
-      <c r="AL58" s="23"/>
-      <c r="AM58" s="23"/>
-      <c r="AN58" s="23"/>
-      <c r="AO58" s="23"/>
-      <c r="AP58" s="26"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="32"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="33"/>
+      <c r="AC58" s="34"/>
+      <c r="AD58" s="32"/>
+      <c r="AE58" s="33"/>
+      <c r="AF58" s="34"/>
+      <c r="AG58" s="85"/>
+      <c r="AH58" s="85"/>
+      <c r="AI58" s="85"/>
+      <c r="AJ58" s="85"/>
+      <c r="AK58" s="85"/>
+      <c r="AL58" s="85"/>
+      <c r="AM58" s="85"/>
+      <c r="AN58" s="85"/>
+      <c r="AO58" s="85"/>
+      <c r="AP58" s="89"/>
       <c r="AQ58" s="1"/>
       <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
@@ -5627,50 +5651,50 @@
       <c r="AZ58" s="1"/>
     </row>
     <row r="59" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A59" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
-      <c r="Z59" s="39"/>
-      <c r="AA59" s="39"/>
-      <c r="AB59" s="39"/>
-      <c r="AC59" s="39"/>
-      <c r="AD59" s="39"/>
-      <c r="AE59" s="39"/>
-      <c r="AF59" s="39"/>
-      <c r="AG59" s="39"/>
-      <c r="AH59" s="39"/>
-      <c r="AI59" s="39"/>
-      <c r="AJ59" s="39"/>
-      <c r="AK59" s="39"/>
-      <c r="AL59" s="39"/>
-      <c r="AM59" s="39"/>
-      <c r="AN59" s="39"/>
-      <c r="AO59" s="39"/>
-      <c r="AP59" s="40"/>
+      <c r="A59" s="119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22"/>
+      <c r="AC59" s="22"/>
+      <c r="AD59" s="22"/>
+      <c r="AE59" s="22"/>
+      <c r="AF59" s="22"/>
+      <c r="AG59" s="22"/>
+      <c r="AH59" s="22"/>
+      <c r="AI59" s="22"/>
+      <c r="AJ59" s="22"/>
+      <c r="AK59" s="22"/>
+      <c r="AL59" s="22"/>
+      <c r="AM59" s="22"/>
+      <c r="AN59" s="22"/>
+      <c r="AO59" s="22"/>
+      <c r="AP59" s="25"/>
       <c r="AQ59" s="1"/>
       <c r="AR59" s="1"/>
       <c r="AS59" s="1"/>
@@ -16484,24 +16508,258 @@
     </row>
   </sheetData>
   <mergeCells count="297">
-    <mergeCell ref="R27:V27"/>
-    <mergeCell ref="AF26:AJ26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="Y26:AC26"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AF27:AJ27"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AF21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AF20:AJ20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y22:AC22"/>
-    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AO56:AO58"/>
+    <mergeCell ref="AP56:AP58"/>
+    <mergeCell ref="F57:Q58"/>
+    <mergeCell ref="AD56:AF58"/>
+    <mergeCell ref="AG56:AG58"/>
+    <mergeCell ref="AH56:AH58"/>
+    <mergeCell ref="AI56:AI58"/>
+    <mergeCell ref="AJ56:AJ58"/>
+    <mergeCell ref="AK56:AK58"/>
+    <mergeCell ref="AL56:AL58"/>
+    <mergeCell ref="AM56:AM58"/>
+    <mergeCell ref="AN56:AN58"/>
+    <mergeCell ref="AP53:AP55"/>
+    <mergeCell ref="X50:AC52"/>
+    <mergeCell ref="A59:AP59"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:E55"/>
+    <mergeCell ref="F53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="R53:W55"/>
+    <mergeCell ref="F54:Q55"/>
+    <mergeCell ref="R50:W52"/>
+    <mergeCell ref="AI50:AI52"/>
+    <mergeCell ref="AH50:AH52"/>
+    <mergeCell ref="AD50:AF52"/>
+    <mergeCell ref="AG50:AG52"/>
+    <mergeCell ref="AL50:AL52"/>
+    <mergeCell ref="AK50:AK52"/>
+    <mergeCell ref="X53:AC55"/>
+    <mergeCell ref="AD53:AF55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:E58"/>
+    <mergeCell ref="F56:N56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="R56:W58"/>
+    <mergeCell ref="X56:AC58"/>
+    <mergeCell ref="AG53:AG55"/>
+    <mergeCell ref="AH53:AH55"/>
+    <mergeCell ref="AI53:AI55"/>
+    <mergeCell ref="AJ53:AJ55"/>
+    <mergeCell ref="AK53:AK55"/>
+    <mergeCell ref="AL53:AL55"/>
+    <mergeCell ref="AM53:AM55"/>
+    <mergeCell ref="AN53:AN55"/>
+    <mergeCell ref="AO53:AO55"/>
+    <mergeCell ref="A1:AP3"/>
+    <mergeCell ref="A4:AI4"/>
+    <mergeCell ref="AB5:AP7"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="P5:X6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="AB8:AP10"/>
+    <mergeCell ref="AJ50:AJ52"/>
+    <mergeCell ref="B50:E52"/>
+    <mergeCell ref="X47:AC49"/>
+    <mergeCell ref="AD47:AF49"/>
+    <mergeCell ref="B47:E49"/>
+    <mergeCell ref="F50:N50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="AK47:AK49"/>
+    <mergeCell ref="AL47:AL49"/>
+    <mergeCell ref="R47:W49"/>
+    <mergeCell ref="F47:N47"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="D6:L7"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="D8:L9"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="Y5:AA7"/>
+    <mergeCell ref="Y8:AA10"/>
+    <mergeCell ref="P7:X8"/>
+    <mergeCell ref="M7:O8"/>
+    <mergeCell ref="R32:V32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF22:AJ22"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:V28"/>
+    <mergeCell ref="R26:V26"/>
+    <mergeCell ref="K29:O29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="AF31:AJ31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R31:V31"/>
+    <mergeCell ref="Y21:AC21"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R30:V30"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="Y32:AC32"/>
+    <mergeCell ref="Y25:AC25"/>
+    <mergeCell ref="AF32:AJ32"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="Y29:AC29"/>
+    <mergeCell ref="AF29:AJ29"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="Y28:AC28"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="Y30:AC30"/>
+    <mergeCell ref="Y31:AC31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AF25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="A34:AP35"/>
+    <mergeCell ref="A33:AJ33"/>
+    <mergeCell ref="AO44:AO46"/>
+    <mergeCell ref="AP44:AP46"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="A22:C29"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:O32"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:O31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="AG41:AG43"/>
+    <mergeCell ref="AG44:AG46"/>
+    <mergeCell ref="AG36:AP36"/>
+    <mergeCell ref="AP37:AP40"/>
+    <mergeCell ref="AH37:AH40"/>
+    <mergeCell ref="AP47:AP49"/>
+    <mergeCell ref="AN47:AN49"/>
+    <mergeCell ref="AM47:AM49"/>
+    <mergeCell ref="AP50:AP52"/>
+    <mergeCell ref="AO50:AO52"/>
+    <mergeCell ref="AM50:AM52"/>
+    <mergeCell ref="AN50:AN52"/>
+    <mergeCell ref="AO47:AO49"/>
+    <mergeCell ref="AP41:AP43"/>
+    <mergeCell ref="AG47:AG49"/>
+    <mergeCell ref="AI41:AI43"/>
+    <mergeCell ref="AI44:AI46"/>
+    <mergeCell ref="AK37:AK40"/>
+    <mergeCell ref="AG37:AG40"/>
+    <mergeCell ref="AI37:AI40"/>
+    <mergeCell ref="AI47:AI49"/>
+    <mergeCell ref="AH47:AH49"/>
+    <mergeCell ref="AJ44:AJ46"/>
+    <mergeCell ref="AK41:AK43"/>
+    <mergeCell ref="AH44:AH46"/>
+    <mergeCell ref="AJ47:AJ49"/>
+    <mergeCell ref="AJ37:AJ40"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="F48:Q49"/>
+    <mergeCell ref="B44:E46"/>
+    <mergeCell ref="F51:Q52"/>
+    <mergeCell ref="F45:Q46"/>
+    <mergeCell ref="R44:W46"/>
+    <mergeCell ref="AO37:AO40"/>
+    <mergeCell ref="AM37:AM40"/>
+    <mergeCell ref="AL37:AL40"/>
+    <mergeCell ref="AN37:AN40"/>
+    <mergeCell ref="AD44:AF46"/>
+    <mergeCell ref="AM41:AM43"/>
+    <mergeCell ref="AJ41:AJ43"/>
+    <mergeCell ref="AL41:AL43"/>
+    <mergeCell ref="AN41:AN43"/>
+    <mergeCell ref="AH41:AH43"/>
+    <mergeCell ref="AK44:AK46"/>
+    <mergeCell ref="AL44:AL46"/>
+    <mergeCell ref="AN44:AN46"/>
+    <mergeCell ref="AO41:AO43"/>
+    <mergeCell ref="AM44:AM46"/>
+    <mergeCell ref="AD41:AF43"/>
+    <mergeCell ref="P9:T10"/>
+    <mergeCell ref="U9:X10"/>
+    <mergeCell ref="M9:O10"/>
+    <mergeCell ref="M11:O12"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C21"/>
+    <mergeCell ref="AF30:AJ30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AF23:AJ23"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:V24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="R25:V25"/>
+    <mergeCell ref="R23:V23"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="Y23:AC23"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="F15:N15"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="F16:N16"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="A14:E17"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="D11:L12"/>
+    <mergeCell ref="R41:W43"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="X41:AC43"/>
+    <mergeCell ref="F41:N41"/>
+    <mergeCell ref="F42:Q43"/>
+    <mergeCell ref="F44:N44"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="F36:Q40"/>
+    <mergeCell ref="B36:E40"/>
     <mergeCell ref="AD36:AF40"/>
     <mergeCell ref="X36:AC40"/>
     <mergeCell ref="B41:E43"/>
@@ -16526,261 +16784,27 @@
     <mergeCell ref="AK27:AL27"/>
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="R29:V29"/>
-    <mergeCell ref="R41:W43"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="X41:AC43"/>
-    <mergeCell ref="F41:N41"/>
-    <mergeCell ref="F42:Q43"/>
-    <mergeCell ref="F44:N44"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="F36:Q40"/>
-    <mergeCell ref="B36:E40"/>
-    <mergeCell ref="F15:N15"/>
-    <mergeCell ref="F14:N14"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="F16:N16"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="A14:E17"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="D11:L12"/>
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:V24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="R25:V25"/>
-    <mergeCell ref="R23:V23"/>
-    <mergeCell ref="P9:T10"/>
-    <mergeCell ref="U9:X10"/>
-    <mergeCell ref="M9:O10"/>
-    <mergeCell ref="M11:O12"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C21"/>
-    <mergeCell ref="AF30:AJ30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AF23:AJ23"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="F48:Q49"/>
-    <mergeCell ref="B44:E46"/>
-    <mergeCell ref="F51:Q52"/>
-    <mergeCell ref="F45:Q46"/>
-    <mergeCell ref="R44:W46"/>
-    <mergeCell ref="AO37:AO40"/>
-    <mergeCell ref="AM37:AM40"/>
-    <mergeCell ref="AL37:AL40"/>
-    <mergeCell ref="AN37:AN40"/>
-    <mergeCell ref="AD44:AF46"/>
-    <mergeCell ref="AM41:AM43"/>
-    <mergeCell ref="AJ41:AJ43"/>
-    <mergeCell ref="AL41:AL43"/>
-    <mergeCell ref="AN41:AN43"/>
-    <mergeCell ref="AH41:AH43"/>
-    <mergeCell ref="AK44:AK46"/>
-    <mergeCell ref="AL44:AL46"/>
-    <mergeCell ref="AN44:AN46"/>
-    <mergeCell ref="AO41:AO43"/>
-    <mergeCell ref="AM44:AM46"/>
-    <mergeCell ref="AD41:AF43"/>
-    <mergeCell ref="AG47:AG49"/>
-    <mergeCell ref="AI41:AI43"/>
-    <mergeCell ref="AI44:AI46"/>
-    <mergeCell ref="AK37:AK40"/>
-    <mergeCell ref="AG37:AG40"/>
-    <mergeCell ref="AI37:AI40"/>
-    <mergeCell ref="AI47:AI49"/>
-    <mergeCell ref="AH47:AH49"/>
-    <mergeCell ref="AJ44:AJ46"/>
-    <mergeCell ref="AK41:AK43"/>
-    <mergeCell ref="AH44:AH46"/>
-    <mergeCell ref="AJ47:AJ49"/>
-    <mergeCell ref="AJ37:AJ40"/>
-    <mergeCell ref="AP37:AP40"/>
-    <mergeCell ref="AH37:AH40"/>
-    <mergeCell ref="AP47:AP49"/>
-    <mergeCell ref="AN47:AN49"/>
-    <mergeCell ref="AM47:AM49"/>
-    <mergeCell ref="AP50:AP52"/>
-    <mergeCell ref="AO50:AO52"/>
-    <mergeCell ref="AM50:AM52"/>
-    <mergeCell ref="AN50:AN52"/>
-    <mergeCell ref="AO47:AO49"/>
-    <mergeCell ref="AP41:AP43"/>
-    <mergeCell ref="A34:AP35"/>
-    <mergeCell ref="A33:AJ33"/>
-    <mergeCell ref="AO44:AO46"/>
-    <mergeCell ref="AP44:AP46"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="A22:C29"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="K30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:O32"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:O31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="AG41:AG43"/>
-    <mergeCell ref="AG44:AG46"/>
-    <mergeCell ref="AG36:AP36"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="Y32:AC32"/>
-    <mergeCell ref="Y25:AC25"/>
-    <mergeCell ref="AF32:AJ32"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="Y29:AC29"/>
-    <mergeCell ref="AF29:AJ29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="Y28:AC28"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="Y30:AC30"/>
-    <mergeCell ref="Y31:AC31"/>
-    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="R27:V27"/>
+    <mergeCell ref="AF26:AJ26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="Y26:AC26"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AF27:AJ27"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AF21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AF20:AJ20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="AD21:AE21"/>
     <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="I22:J22"/>
     <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AF25:AJ25"/>
     <mergeCell ref="AF24:AJ24"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="Y23:AC23"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="Y5:AA7"/>
-    <mergeCell ref="Y8:AA10"/>
-    <mergeCell ref="P7:X8"/>
-    <mergeCell ref="M7:O8"/>
-    <mergeCell ref="R32:V32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AF22:AJ22"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:V28"/>
-    <mergeCell ref="R26:V26"/>
-    <mergeCell ref="K29:O29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="AF31:AJ31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R31:V31"/>
-    <mergeCell ref="Y21:AC21"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R30:V30"/>
-    <mergeCell ref="A1:AP3"/>
-    <mergeCell ref="A4:AI4"/>
-    <mergeCell ref="AB5:AP7"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="P5:X6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="AB8:AP10"/>
-    <mergeCell ref="AJ50:AJ52"/>
-    <mergeCell ref="B50:E52"/>
-    <mergeCell ref="X47:AC49"/>
-    <mergeCell ref="AD47:AF49"/>
-    <mergeCell ref="B47:E49"/>
-    <mergeCell ref="F50:N50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="AK47:AK49"/>
-    <mergeCell ref="AL47:AL49"/>
-    <mergeCell ref="R47:W49"/>
-    <mergeCell ref="F47:N47"/>
-    <mergeCell ref="O47:Q47"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="D6:L7"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="D8:L9"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="AG53:AG55"/>
-    <mergeCell ref="AH53:AH55"/>
-    <mergeCell ref="AI53:AI55"/>
-    <mergeCell ref="AJ53:AJ55"/>
-    <mergeCell ref="AK53:AK55"/>
-    <mergeCell ref="AL53:AL55"/>
-    <mergeCell ref="AM53:AM55"/>
-    <mergeCell ref="AN53:AN55"/>
-    <mergeCell ref="AO53:AO55"/>
-    <mergeCell ref="AP53:AP55"/>
-    <mergeCell ref="X50:AC52"/>
-    <mergeCell ref="A59:AP59"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:E55"/>
-    <mergeCell ref="F53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="R53:W55"/>
-    <mergeCell ref="F54:Q55"/>
-    <mergeCell ref="R50:W52"/>
-    <mergeCell ref="AI50:AI52"/>
-    <mergeCell ref="AH50:AH52"/>
-    <mergeCell ref="AD50:AF52"/>
-    <mergeCell ref="AG50:AG52"/>
-    <mergeCell ref="AL50:AL52"/>
-    <mergeCell ref="AK50:AK52"/>
-    <mergeCell ref="X53:AC55"/>
-    <mergeCell ref="AD53:AF55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:E58"/>
-    <mergeCell ref="F56:N56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="R56:W58"/>
-    <mergeCell ref="X56:AC58"/>
-    <mergeCell ref="AO56:AO58"/>
-    <mergeCell ref="AP56:AP58"/>
-    <mergeCell ref="F57:Q58"/>
-    <mergeCell ref="AD56:AF58"/>
-    <mergeCell ref="AG56:AG58"/>
-    <mergeCell ref="AH56:AH58"/>
-    <mergeCell ref="AI56:AI58"/>
-    <mergeCell ref="AJ56:AJ58"/>
-    <mergeCell ref="AK56:AK58"/>
-    <mergeCell ref="AL56:AL58"/>
-    <mergeCell ref="AM56:AM58"/>
-    <mergeCell ref="AN56:AN58"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <dataValidations count="1">
